--- a/rcads/data/xls/30_Codebooks.xlsx
+++ b/rcads/data/xls/30_Codebooks.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="30_Codebooks"/>
+    <sheet sheetId="1" r:id="rId1" name="_30_Codebooks"/>
   </sheets>
+  <definedNames>
+    <definedName name="_30_Codebooks">'_30_Codebooks'!$A$1:$D$31</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -23,37 +26,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -61,42 +33,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,98 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,580 +343,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" min="1" max="1" width="14.0625"/>
-    <col customWidth="true" min="2" max="2" width="29.8828125"/>
-    <col customWidth="true" min="3" max="3" width="23.4375"/>
-    <col customWidth="true" min="4" max="4" width="22.8515625"/>
-  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>CodebookID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>CodebookName</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>CodebookExperience</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>CodebookLanguage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-English</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Arabic</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Arabic</t>
-        </is>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0">
+        <v>2</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Chinese (Simplified)</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Chinese (Simplified)</t>
-        </is>
+      <c r="C4" s="0">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0">
+        <v>3</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Danish</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Danish</t>
-        </is>
+      <c r="C5" s="0">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0">
+        <v>4</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Dutch</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Dutch</t>
-        </is>
+      <c r="C6" s="0">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Estonian</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Estonian</t>
-        </is>
+      <c r="C7" s="0">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0">
+        <v>6</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Finnish</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Finnish</t>
-        </is>
+      <c r="C8" s="0">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0">
+        <v>7</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-French</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>French</t>
-        </is>
+      <c r="C9" s="0">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0">
+        <v>8</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-German</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>German</t>
-        </is>
+      <c r="C10" s="0">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0">
+        <v>9</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Greek</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Greek</t>
-        </is>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0">
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Hungarian</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Hungarian</t>
-        </is>
+      <c r="C12" s="0">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0">
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Icelandic</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Icelandic</t>
-        </is>
+      <c r="C13" s="0">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0">
+        <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Japanese</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Japanese</t>
-        </is>
+      <c r="C14" s="0">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0">
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Korean</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Korean</t>
-        </is>
+      <c r="C15" s="0">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0">
+        <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Lithuanian</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>Lithuanian</t>
-        </is>
+      <c r="C16" s="0">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0">
+        <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Norweigan</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
+      <c r="C17" s="0">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0">
+        <v>16</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Persian</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="inlineStr">
-        <is>
-          <t>Persian</t>
-        </is>
+      <c r="C18" s="0">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0">
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Polish</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>Polish</t>
-        </is>
+      <c r="C19" s="0">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0">
+        <v>18</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="0">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Portuguese</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>Portuguese</t>
-        </is>
+      <c r="C20" s="0">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0">
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="0">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="B21" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Slovene</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>Slovenian</t>
-        </is>
+      <c r="C21" s="0">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0">
+        <v>20</v>
       </c>
     </row>
     <row outlineLevel="0" r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="0">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Spanish</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>Spanish</t>
-        </is>
+      <c r="C22" s="0">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0">
+        <v>21</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="0">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="B23" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Swedish</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>Swedish</t>
-        </is>
+      <c r="C23" s="0">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0">
+        <v>22</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="0">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B24" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Turkish</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
-        <is>
-          <t>Turkish</t>
-        </is>
+      <c r="C24" s="0">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0">
+        <v>23</v>
       </c>
     </row>
     <row outlineLevel="0" r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="0">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B25" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Freqency-Urdu</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="inlineStr">
-        <is>
-          <t>Urdu</t>
-        </is>
+      <c r="C25" s="0">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0">
+        <v>24</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="0">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B26" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Agreement-English</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>Agreement</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
+      <c r="C26" s="0">
+        <v>5</v>
+      </c>
+      <c r="D26" s="0">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="0">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="B27" s="0" t="inlineStr">
         <is>
           <t>4.0-item-Agreement-Spanish</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>Agreement</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
-        <is>
-          <t>Spanish</t>
-        </is>
+      <c r="C27" s="0">
+        <v>5</v>
+      </c>
+      <c r="D27" s="0">
+        <v>21</v>
       </c>
     </row>
     <row outlineLevel="0" r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="0">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B28" s="0" t="inlineStr">
         <is>
           <t>4.1-item-Frequency-English</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="D28" s="6" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
+      <c r="C28" s="0">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>4.2-item-Frequency-English</t>
+        </is>
+      </c>
+      <c r="C29" s="0">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>4.0-item-Frequency-Swahili</t>
+        </is>
+      </c>
+      <c r="C30" s="0">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>4.0-item-Agreement-Norwegian</t>
+        </is>
+      </c>
+      <c r="C31" s="0">
+        <v>5</v>
+      </c>
+      <c r="D31" s="0">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/rcads/data/xls/30_Codebooks.xlsx
+++ b/rcads/data/xls/30_Codebooks.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_30_Codebooks"/>
   </sheets>
   <definedNames>
-    <definedName name="_30_Codebooks">'_30_Codebooks'!$A$1:$D$31</definedName>
+    <definedName name="_30_Codebooks">'_30_Codebooks'!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -379,7 +379,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-English</t>
+          <t>4.0-item-Frequency-English</t>
         </is>
       </c>
       <c r="C2" s="0">
@@ -395,7 +395,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Arabic</t>
+          <t>4.0-item-Frequency-Arabic</t>
         </is>
       </c>
       <c r="C3" s="0">
@@ -411,7 +411,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Chinese (Simplified)</t>
+          <t>4.0-item-Frequency-Chinese (Simplified)</t>
         </is>
       </c>
       <c r="C4" s="0">
@@ -427,7 +427,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Danish</t>
+          <t>4.0-item-Frequency-Danish</t>
         </is>
       </c>
       <c r="C5" s="0">
@@ -443,7 +443,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Dutch</t>
+          <t>4.0-item-Frequency-Dutch</t>
         </is>
       </c>
       <c r="C6" s="0">
@@ -459,7 +459,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Estonian</t>
+          <t>4.0-item-Frequency-Estonian</t>
         </is>
       </c>
       <c r="C7" s="0">
@@ -475,7 +475,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Finnish</t>
+          <t>4.0-item-Frequency-Finnish</t>
         </is>
       </c>
       <c r="C8" s="0">
@@ -491,7 +491,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-French</t>
+          <t>4.0-item-Frequency-French</t>
         </is>
       </c>
       <c r="C9" s="0">
@@ -507,7 +507,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-German</t>
+          <t>4.0-item-Frequency-German</t>
         </is>
       </c>
       <c r="C10" s="0">
@@ -523,7 +523,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Greek</t>
+          <t>4.0-item-Frequency-Greek</t>
         </is>
       </c>
       <c r="C11" s="0">
@@ -539,7 +539,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Hungarian</t>
+          <t>4.0-item-Frequency-Hungarian</t>
         </is>
       </c>
       <c r="C12" s="0">
@@ -555,7 +555,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Icelandic</t>
+          <t>4.0-item-Frequency-Icelandic</t>
         </is>
       </c>
       <c r="C13" s="0">
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Japanese</t>
+          <t>4.0-item-Frequency-Japanese</t>
         </is>
       </c>
       <c r="C14" s="0">
@@ -587,7 +587,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Korean</t>
+          <t>4.0-item-Frequency-Korean</t>
         </is>
       </c>
       <c r="C15" s="0">
@@ -603,7 +603,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Lithuanian</t>
+          <t>4.0-item-Frequency-Lithuanian</t>
         </is>
       </c>
       <c r="C16" s="0">
@@ -619,7 +619,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Norweigan</t>
+          <t>4.0-item-Frequency-Norweigan</t>
         </is>
       </c>
       <c r="C17" s="0">
@@ -635,7 +635,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Persian</t>
+          <t>4.0-item-Frequency-Persian</t>
         </is>
       </c>
       <c r="C18" s="0">
@@ -651,7 +651,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Polish</t>
+          <t>4.0-item-Frequency-Polish</t>
         </is>
       </c>
       <c r="C19" s="0">
@@ -667,7 +667,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Portuguese</t>
+          <t>4.0-item-Frequency-Portuguese</t>
         </is>
       </c>
       <c r="C20" s="0">
@@ -683,7 +683,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Slovene</t>
+          <t>4.0-item-Frequency-Slovene</t>
         </is>
       </c>
       <c r="C21" s="0">
@@ -699,7 +699,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Spanish</t>
+          <t>4.0-item-Frequency-Spanish</t>
         </is>
       </c>
       <c r="C22" s="0">
@@ -715,7 +715,7 @@
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Swedish</t>
+          <t>4.0-item-Frequency-Swedish</t>
         </is>
       </c>
       <c r="C23" s="0">
@@ -731,7 +731,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Turkish</t>
+          <t>4.0-item-Frequency-Turkish</t>
         </is>
       </c>
       <c r="C24" s="0">
@@ -747,7 +747,7 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>4.0-item-Freqency-Urdu</t>
+          <t>4.0-item-Frequency-Urdu</t>
         </is>
       </c>
       <c r="C25" s="0">
@@ -851,6 +851,54 @@
       </c>
       <c r="D31" s="0">
         <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>4.0-item-Frequency-Hindi</t>
+        </is>
+      </c>
+      <c r="C32" s="0">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>4.1-item-Frequency-Hindi</t>
+        </is>
+      </c>
+      <c r="C33" s="0">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>4.0-item-Frequency-Punjabi</t>
+        </is>
+      </c>
+      <c r="C34" s="0">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/rcads/data/xls/30_Codebooks.xlsx
+++ b/rcads/data/xls/30_Codebooks.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_30_Codebooks"/>
   </sheets>
   <definedNames>
-    <definedName name="_30_Codebooks">'_30_Codebooks'!$A$1:$D$34</definedName>
+    <definedName name="_30_Codebooks">'_30_Codebooks'!$A$1:$D$35</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -901,6 +901,22 @@
         <v>32</v>
       </c>
     </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>4.0-item-Frequency-Mongolian</t>
+        </is>
+      </c>
+      <c r="C35" s="0">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/30_Codebooks.xlsx
+++ b/rcads/data/xls/30_Codebooks.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_30_Codebooks"/>
   </sheets>
   <definedNames>
-    <definedName name="_30_Codebooks">'_30_Codebooks'!$A$1:$D$35</definedName>
+    <definedName name="_30_Codebooks">'_30_Codebooks'!$A$1:$D$36</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -917,6 +917,22 @@
         <v>38</v>
       </c>
     </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>4.2-item-Frequency-Arabic</t>
+        </is>
+      </c>
+      <c r="C36" s="0">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/30_Codebooks.xlsx
+++ b/rcads/data/xls/30_Codebooks.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_30_Codebooks"/>
   </sheets>
   <definedNames>
-    <definedName name="_30_Codebooks">'_30_Codebooks'!$A$1:$D$36</definedName>
+    <definedName name="_30_Codebooks">'_30_Codebooks'!$A$1:$D$39</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -933,6 +933,54 @@
         <v>2</v>
       </c>
     </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>4.0-item-Frequency-Marathi</t>
+        </is>
+      </c>
+      <c r="C37" s="0">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>4.0-item-Frequency-Serbian</t>
+        </is>
+      </c>
+      <c r="C38" s="0">
+        <v>1</v>
+      </c>
+      <c r="D38" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>4.0-item-Frequency-Vietnamese</t>
+        </is>
+      </c>
+      <c r="C39" s="0">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
